--- a/similarities/split_global/harmonic_similarity_timestamps_59.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_59.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,706 +484,722 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>isophonics_149</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_54</t>
+          <t>schubert-winterreise_72</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>['B', 'F#', 'B', 'F#', 'B']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min'], ['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:13.420000', '0:00:19.500000'), ('0:01:14.800000', '0:01:21.060000')]</t>
+          <t>('0:02:31.259637', '0:02:37.900544')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:09.240000', '0:00:16.260000'), ('0:00:18.420000', '0:00:24.340000')]</t>
+          <t>('0:00:08.340000', '0:00:11.160000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=13.42', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=74.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-149#t=151.259637</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=9.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=18.42']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=8.34</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_297</t>
+          <t>isophonics_57</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>schubert-winterreise_97</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['G', 'G:7', 'C']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:51.641107', '0:00:57.139232')]</t>
+          <t>('0:00:04.155032', '0:00:07.525011')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:54.760000', '0:01:02.820000')]</t>
+          <t>('0:01:09.360000', '0:01:13.200000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-297#t=51.641107']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-57#t=4.155032</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=54.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=69.36</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_92</t>
+          <t>isophonics_61</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>schubert-winterreise_75</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min', 'B:7/A', 'E:min/G']]</t>
+          <t>['B/5', 'B:min/5', 'F#:min', 'C#', 'F#:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B']]</t>
+          <t>['A#', 'A#:min', 'F:min/C', 'C', 'F:min/C']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:10.780000', '0:00:17.680000')]</t>
+          <t>('0:00:01.829138', '0:00:06.774988')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:13.740000', '0:00:26.160000')]</t>
+          <t>('0:00:44.440000', '0:00:49.900000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=10.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=1.829138</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=13.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-75#t=44.44</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_80</t>
+          <t>schubert-winterreise_148</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>jaah_72</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['Bb:7', 'Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:02:10.840000', '0:02:15.980000')]</t>
+          <t>('0:00:12.580000', '0:00:26.260000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:43.180000', '0:00:45.100000')]</t>
+          <t>('0:00:42.150000', '0:01:07.840000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=130.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-148#t=12.58</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=43.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=42.15</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_179</t>
+          <t>schubert-winterreise_68</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb/2', 'Bb']]</t>
+          <t>['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['Db/5', 'Db', 'Ab/3']]</t>
+          <t>['Bb:7', 'Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:40.219000', '0:00:45.818000')]</t>
+          <t>('0:00:33', '0:00:48.220000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:40.436000', '0:01:44.002000')]</t>
+          <t>('0:00:30.500000', '0:00:41.370000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-179#t=40.219']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-68#t=33.0</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=100.436']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=30.5</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
+          <t>schubert-winterreise_25</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_92</t>
+          <t>isophonics_269</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min']]</t>
+          <t>['A:min', 'E', 'A:min', 'E', 'A:min', 'E', 'A:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:08.540000', '0:00:14.080000')]</t>
+          <t>('0:00:42.520000', '0:00:55.620000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:10.780000', '0:00:16.280000')]</t>
+          <t>('0:00:38.841000', '0:00:47.891000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=8.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-25#t=42.52</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=10.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-269#t=38.841</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
+          <t>isophonics_252</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_221</t>
+          <t>schubert-winterreise_121</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['Bb/3', 'Eb:maj', 'Bb/3']]</t>
+          <t>['C:min', 'G:maj', 'C:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C', 'F/5', 'C']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:38.041000', '0:00:42.375000')]</t>
+          <t>('0:00:07.523000', '0:00:10.397000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:05.121000', '0:00:12.601000')]</t>
+          <t>('0:00:15.060000', '0:00:23.160000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=38.041']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=7.523</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-221#t=5.121']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=15.06</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_198</t>
+          <t>isophonics_261</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>isophonics_64</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['D:min', 'A', 'D:min']]</t>
+          <t>['G/3', 'C', 'G']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj', 'F:min']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:18.965464', '0:00:23.342426')]</t>
+          <t>('0:00:13.079206', '0:00:17.500916')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:00.340000', '0:00:04.840000')]</t>
+          <t>('0:01:14.879000', '0:01:25.949000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-198#t=18.965464']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-261#t=13.079206</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=0.34']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=74.879</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_233</t>
+          <t>schubert-winterreise_164</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C:7', 'F:min']]</t>
+          <t>['C:min', 'C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min']]</t>
+          <t>['A:min', 'A:min/E', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:48.240000', '0:00:55.680000')]</t>
+          <t>('0:00:22.080000', '0:00:29.360000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:36.711000', '0:00:39.787000')]</t>
+          <t>('0:00:46.900000', '0:00:59.640000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=48.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=22.08</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-233#t=36.711']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-164#t=46.9</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_43</t>
+          <t>isophonics_291</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
+          <t>schubert-winterreise_4</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'B', 'E']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['E', 'A/3', 'E/5', 'A/3']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:00.459543', '0:00:13.717755')]</t>
+          <t>('0:00:03.044470', '0:00:11.035850')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:47.176000', '0:00:54.592000')]</t>
+          <t>('0:01:06.520000', '0:01:10.140000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-43#t=0.459543']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-291#t=3.04447</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=47.176']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=66.52</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>schubert-winterreise_25</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_192</t>
+          <t>schubert-winterreise_120</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['B:hdim7/D', 'E:7', 'A:min']]</t>
+          <t>['F:min/C', 'C', 'F:min/C']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G:hdim7/A#', 'C:7', 'F:min']]</t>
+          <t>['A#:min', 'F:maj/A', 'A#:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:12.200000', '0:00:17.780000')]</t>
+          <t>('0:00:42.520000', '0:00:46.360000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:24.240000', '0:00:30.960000')]</t>
+          <t>('0:00:12.600000', '0:00:17.860000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-5#t=12.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-25#t=42.52</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-192#t=24.24']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=12.6</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>isophonics_173</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['G:maj', 'E:min', 'A:min/C']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['A', 'F#:min', 'B:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:01.440000', '0:00:06.840000')]</t>
+          <t>('0:00:07.640000', '0:00:15')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:39.840000', '0:00:47.280000')]</t>
+          <t>('0:00:17.670317', '0:00:31.045011')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=1.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=7.64</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-106#t=39.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-173#t=17.670317</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_151</t>
+          <t>schubert-winterreise_167</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_59</t>
+          <t>isophonics_273</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj/G', 'F:maj/A'], ['C:maj/G', 'F:maj', 'C:maj/G']]</t>
+          <t>['C:maj', 'G:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['C/5', 'G', 'C'], ['G', 'C', 'G/3']]</t>
+          <t>['C', 'G', 'C']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:02:00', '0:02:02.700000'), ('0:01:57.540000', '0:02:01.800000')]</t>
+          <t>('0:00:09.540000', '0:00:11.420000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:27.476822', '0:00:35.056893'), ('0:00:14.628775', '0:00:26.430680')]</t>
+          <t>('0:00:20.801000', '0:00:27.165000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-151#t=120.0', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-151#t=117.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=9.54</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-59#t=27.476822', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-59#t=14.628775']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-273#t=20.801</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_13</t>
+          <t>schubert-winterreise_14</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>isophonics_74</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['B:maj', 'F#:7', 'B:maj', 'F#:maj'], ['F#:7', 'B:maj', 'F#:maj', 'B:maj']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'D:7', 'G:maj', 'D:maj'], ['D:7', 'G:maj', 'D:maj', 'G:maj']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:08.880000', '0:00:11.600000'), ('0:00:09.540000', '0:00:12.320000')]</t>
+          <t>('0:01:23.340000', '0:01:27.640000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:41.460000', '0:00:45.060000'), ('0:00:42.620000', '0:00:45.660000')]</t>
+          <t>('0:00:37.995918', '0:00:46.610521')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=8.88', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=9.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=83.34</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=41.46', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=42.62']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-74#t=37.995918</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_66</t>
+          <t>schubert-winterreise_41</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7']]</t>
+          <t>['A#:min/F', 'F', 'A#:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:04.080000', '0:01:12.160000')]</t>
+          <t>('0:00:13.360000', '0:00:20.940000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:55.230000', '0:01:07.670000')]</t>
+          <t>('0:00:11.160000', '0:00:16.300000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=64.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=13.36</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=55.23']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=11.16</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
